--- a/biology/Botanique/Marc_du_Jura/Marc_du_Jura.xlsx
+++ b/biology/Botanique/Marc_du_Jura/Marc_du_Jura.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le marc du Jura est une eau-de-vie de marc produite dans le vignoble du Jura.
 </t>
@@ -511,7 +523,9 @@
           <t>Élaboration</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le marc du Jura est obtenu par double distillation continue du marc de raisin dit de cuve ou de vin.
 Il est ensuite élevé en fûts de chêne pendant 2 à 5 années, voire davantage. Après élevage, il est mis en bouteille (bouteille classique « Jura » de 75 cl). Il peut être conservé pendant 50 ans ou plus.
@@ -545,17 +559,14 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Cépage
-Le cépage utilisé pour le marc peut être de type Chardonnay ou Savagnin.
-AOC
-Arbois, Marc du Jura, Eau-de-Vie de Franche-Comté.
-Degré d'alcool
-Comme la plupart des eaux-de-vie, le degré d'alcool obtenu après la double distillation se situe entre 47 et 55 %.
-Approche sensorielle
-Œil : Le vieillissement en petits fûts de chêne lui donne une nuance jaune ambré.
-Nez : Une grande finesse avec dominance de raisins confits, de raisins de Corinthe. Des nuances de vanille dues au vieillissement sous bois.
-Bouche : Fort, rustique, il brûle le palais quand il est jeune.
-Vertus thérapeutiques : Qualités de digestif</t>
+          <t>Cépage</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le cépage utilisé pour le marc peut être de type Chardonnay ou Savagnin.
+</t>
         </is>
       </c>
     </row>
@@ -580,10 +591,125 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Caractéristiques</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>AOC</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Arbois, Marc du Jura, Eau-de-Vie de Franche-Comté.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Marc_du_Jura</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Marc_du_Jura</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Caractéristiques</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Degré d'alcool</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Comme la plupart des eaux-de-vie, le degré d'alcool obtenu après la double distillation se situe entre 47 et 55 %.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Marc_du_Jura</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Marc_du_Jura</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Caractéristiques</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Approche sensorielle</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Œil : Le vieillissement en petits fûts de chêne lui donne une nuance jaune ambré.
+Nez : Une grande finesse avec dominance de raisins confits, de raisins de Corinthe. Des nuances de vanille dues au vieillissement sous bois.
+Bouche : Fort, rustique, il brûle le palais quand il est jeune.
+Vertus thérapeutiques : Qualités de digestif</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Marc_du_Jura</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Marc_du_Jura</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Dégustation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle se marie avec bonheur aux desserts, sorbets et gâteaux (comme le Téméraire).
 En fin de repas, quelques gouttes au fond de la tasse à café suffisent à parfumer le palais pendant de longues heures.
